--- a/Code/Results/Cases/Case_4_231/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_231/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.831103147914803</v>
+        <v>1.808608104485756</v>
       </c>
       <c r="C2">
-        <v>0.3970419801913465</v>
+        <v>0.1215340199039758</v>
       </c>
       <c r="D2">
-        <v>0.2525999151697818</v>
+        <v>0.4710237188118214</v>
       </c>
       <c r="E2">
-        <v>0.05297946537758591</v>
+        <v>0.1400167628055051</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.0008107448488610102</v>
+        <v>0.002507324897131591</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.5053606068510845</v>
+        <v>1.169100895398643</v>
       </c>
       <c r="J2">
-        <v>0.02203523810427743</v>
+        <v>0.0470518017925956</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.4111793681287566</v>
+        <v>0.5266700258374613</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.8197916954947146</v>
+        <v>1.548036878411128</v>
       </c>
       <c r="O2">
-        <v>2.879417273186675</v>
+        <v>5.431941790156287</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.471076328558922</v>
+        <v>1.711197344110815</v>
       </c>
       <c r="C3">
-        <v>0.3474724546802008</v>
+        <v>0.1062177000250415</v>
       </c>
       <c r="D3">
-        <v>0.2372568398405264</v>
+        <v>0.4699262764096659</v>
       </c>
       <c r="E3">
-        <v>0.05251567388554435</v>
+        <v>0.1406612279410435</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.0008157923205215303</v>
+        <v>0.002510735781739136</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.5009094994093459</v>
+        <v>1.177282801318235</v>
       </c>
       <c r="J3">
-        <v>0.02188286390636218</v>
+        <v>0.04703706208949043</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.3707079966585383</v>
+        <v>0.5185733965032995</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.8549340326432784</v>
+        <v>1.563432616638543</v>
       </c>
       <c r="O3">
-        <v>2.748786732078969</v>
+        <v>5.44181348034482</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.251176624664708</v>
+        <v>1.651937334414754</v>
       </c>
       <c r="C4">
-        <v>0.3170786997545463</v>
+        <v>0.09677480672948491</v>
       </c>
       <c r="D4">
-        <v>0.2281696534559075</v>
+        <v>0.4694543860747729</v>
       </c>
       <c r="E4">
-        <v>0.05229805250248099</v>
+        <v>0.1411037367504324</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.0008189944389161297</v>
+        <v>0.002512943342198723</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.4993100349775617</v>
+        <v>1.182909629404168</v>
       </c>
       <c r="J4">
-        <v>0.0217928968521619</v>
+        <v>0.04703029930473868</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.3462498435595336</v>
+        <v>0.5138232423198588</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8776612763413603</v>
+        <v>1.573457637170023</v>
       </c>
       <c r="O4">
-        <v>2.674468524886095</v>
+        <v>5.450854641259866</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.161815285485773</v>
+        <v>1.627928331145824</v>
       </c>
       <c r="C5">
-        <v>0.3046979857235215</v>
+        <v>0.09291716556785445</v>
       </c>
       <c r="D5">
-        <v>0.2245458970808016</v>
+        <v>0.4693129397010409</v>
       </c>
       <c r="E5">
-        <v>0.05222571436440404</v>
+        <v>0.1412958493672036</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.0008203257519155667</v>
+        <v>0.002513871509479405</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.4989297386731195</v>
+        <v>1.185354194434854</v>
       </c>
       <c r="J5">
-        <v>0.0217571128016143</v>
+        <v>0.04702812166982717</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.3363738140500345</v>
+        <v>0.5119432929360954</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.887204145096149</v>
+        <v>1.577686807104921</v>
       </c>
       <c r="O5">
-        <v>2.64557984226667</v>
+        <v>5.455287987682027</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.14699080839074</v>
+        <v>1.623950149726454</v>
       </c>
       <c r="C6">
-        <v>0.3026423219335186</v>
+        <v>0.09227603191246203</v>
       </c>
       <c r="D6">
-        <v>0.2239488399093688</v>
+        <v>0.4692925261604444</v>
       </c>
       <c r="E6">
-        <v>0.05221467455790219</v>
+        <v>0.1413284619172916</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.0008205484265135034</v>
+        <v>0.00251402735912021</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.4988826066713195</v>
+        <v>1.185769266085995</v>
       </c>
       <c r="J6">
-        <v>0.02175122324874845</v>
+        <v>0.04702779509026289</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.3347391823317309</v>
+        <v>0.5116345020693984</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8888055041861982</v>
+        <v>1.578397750310209</v>
       </c>
       <c r="O6">
-        <v>2.640864871545347</v>
+        <v>5.456069370012614</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.249970509061086</v>
+        <v>1.651612972057137</v>
       </c>
       <c r="C7">
-        <v>0.3169117160649364</v>
+        <v>0.09672281987724318</v>
       </c>
       <c r="D7">
-        <v>0.2281204667360299</v>
+        <v>0.4694522724813623</v>
       </c>
       <c r="E7">
-        <v>0.05229701144111765</v>
+        <v>0.1411062799014076</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.000819012285803439</v>
+        <v>0.002512955744097271</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.4993038242358132</v>
+        <v>1.182941983987256</v>
       </c>
       <c r="J7">
-        <v>0.02179241073110116</v>
+        <v>0.04703026759076501</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.3461162937292102</v>
+        <v>0.5137976626225935</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.8777888456408895</v>
+        <v>1.573514090532914</v>
       </c>
       <c r="O7">
-        <v>2.674073375336036</v>
+        <v>5.450911398685349</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.706699511533088</v>
+        <v>1.774907453174421</v>
       </c>
       <c r="C8">
-        <v>0.379938158204709</v>
+        <v>0.1162610360283338</v>
       </c>
       <c r="D8">
-        <v>0.2472375955231882</v>
+        <v>0.4706034491445905</v>
       </c>
       <c r="E8">
-        <v>0.05280527877365593</v>
+        <v>0.1402292703709183</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.0008124641810592359</v>
+        <v>0.002508477514925445</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.5035822176190052</v>
+        <v>1.171796799938917</v>
       </c>
       <c r="J8">
-        <v>0.02198193839832463</v>
+        <v>0.04704624659344159</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.3971388938325617</v>
+        <v>0.5238324835700183</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.8316653419042765</v>
+        <v>1.553226654520412</v>
       </c>
       <c r="O8">
-        <v>2.833101197477447</v>
+        <v>5.434726863279991</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.613591974439146</v>
+        <v>2.021004588198991</v>
       </c>
       <c r="C9">
-        <v>0.5041451870377216</v>
+        <v>0.1542654390095777</v>
       </c>
       <c r="D9">
-        <v>0.2875915006870287</v>
+        <v>0.4744606917072076</v>
       </c>
       <c r="E9">
-        <v>0.05436077121214566</v>
+        <v>0.1388801068182719</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.0008004144707380561</v>
+        <v>0.002500590432057225</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.5216165031690991</v>
+        <v>1.154730065022498</v>
       </c>
       <c r="J9">
-        <v>0.02238336596495039</v>
+        <v>0.04709560435760807</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.5006692434529612</v>
+        <v>0.545260796720811</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.7507104979480701</v>
+        <v>1.517978314925323</v>
       </c>
       <c r="O9">
-        <v>3.195754856866841</v>
+        <v>5.426653879013571</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.289886431157584</v>
+        <v>2.204394298454588</v>
       </c>
       <c r="C10">
-        <v>0.596200022495168</v>
+        <v>0.1819961124008103</v>
       </c>
       <c r="D10">
-        <v>0.3193144662874232</v>
+        <v>0.4782674024891662</v>
       </c>
       <c r="E10">
-        <v>0.05588292770331194</v>
+        <v>0.1381139129658866</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.0007920054872091356</v>
+        <v>0.002495335653980074</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.5417143396832174</v>
+        <v>1.145116230419383</v>
       </c>
       <c r="J10">
-        <v>0.02269845236124901</v>
+        <v>0.0471426949923579</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.5794099941034858</v>
+        <v>0.5620664579082302</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.6975684498539323</v>
+        <v>1.494841628519957</v>
       </c>
       <c r="O10">
-        <v>3.499254274834612</v>
+        <v>5.435186879360487</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.600488224347941</v>
+        <v>2.288374492314006</v>
       </c>
       <c r="C11">
-        <v>0.6383566220827106</v>
+        <v>0.1945697096198273</v>
       </c>
       <c r="D11">
-        <v>0.3342757913622592</v>
+        <v>0.4802099514723466</v>
       </c>
       <c r="E11">
-        <v>0.05666705399170624</v>
+        <v>0.1378140269634578</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.0007882672761560434</v>
+        <v>0.002493061158689865</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.552578141492738</v>
+        <v>1.141379096156086</v>
       </c>
       <c r="J11">
-        <v>0.02284668652011312</v>
+        <v>0.04716643586013802</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.6159480647752247</v>
+        <v>0.5699416348258097</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.6749005980059053</v>
+        <v>1.484914637665305</v>
       </c>
       <c r="O11">
-        <v>3.646844280683354</v>
+        <v>5.442218311051732</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.718598159385863</v>
+        <v>2.320254251633173</v>
       </c>
       <c r="C12">
-        <v>0.6543699991613323</v>
+        <v>0.1993249888973594</v>
       </c>
       <c r="D12">
-        <v>0.3400246510313139</v>
+        <v>0.4809758100278287</v>
       </c>
       <c r="E12">
-        <v>0.05697800433565803</v>
+        <v>0.1377074493022086</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.0007868634226966189</v>
+        <v>0.002492216447189879</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.5569607507242083</v>
+        <v>1.140055534883778</v>
       </c>
       <c r="J12">
-        <v>0.02290357193675163</v>
+        <v>0.04717575648440686</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.6298996096395371</v>
+        <v>0.5729567457151887</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.6665456726040446</v>
+        <v>1.481241499302989</v>
       </c>
       <c r="O12">
-        <v>3.704236580327574</v>
+        <v>5.44533443177437</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.693138065407084</v>
+        <v>2.31338491832588</v>
       </c>
       <c r="C13">
-        <v>0.6509188696452668</v>
+        <v>0.1983011265865571</v>
       </c>
       <c r="D13">
-        <v>0.3387827065049436</v>
+        <v>0.4808095239869346</v>
       </c>
       <c r="E13">
-        <v>0.05691039815433285</v>
+        <v>0.1377300923826219</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.0007871652594398674</v>
+        <v>0.002492397634357886</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.556004569259386</v>
+        <v>1.140336511186028</v>
       </c>
       <c r="J13">
-        <v>0.02289128636026483</v>
+        <v>0.04717373447116557</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.6268895607948934</v>
+        <v>0.5723059244524649</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.6683346698777299</v>
+        <v>1.482028750459556</v>
       </c>
       <c r="O13">
-        <v>3.691807025760397</v>
+        <v>5.444643142508482</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.610194937553274</v>
+        <v>2.290995699362668</v>
       </c>
       <c r="C14">
-        <v>0.6396730022857753</v>
+        <v>0.194961051748777</v>
       </c>
       <c r="D14">
-        <v>0.3347470409496367</v>
+        <v>0.4802723530755912</v>
       </c>
       <c r="E14">
-        <v>0.05669235009961326</v>
+        <v>0.1378051188948017</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.000788151549964648</v>
+        <v>0.002492991331859079</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.5529331880128012</v>
+        <v>1.141268369281491</v>
       </c>
       <c r="J14">
-        <v>0.02285135114495063</v>
+        <v>0.04716719606739517</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.6170934818881335</v>
+        <v>0.5701890302552073</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.6742085723093822</v>
+        <v>1.484610722791217</v>
       </c>
       <c r="O14">
-        <v>3.651535050758014</v>
+        <v>5.442465584833343</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.559456017271032</v>
+        <v>2.277291804532183</v>
       </c>
       <c r="C15">
-        <v>0.6327913312896669</v>
+        <v>0.1929143649151115</v>
       </c>
       <c r="D15">
-        <v>0.3322861506847659</v>
+        <v>0.4799472589108262</v>
       </c>
       <c r="E15">
-        <v>0.05656064087575352</v>
+        <v>0.1378519837198784</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.0007887571839549218</v>
+        <v>0.002493357146947846</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.5510875334762915</v>
+        <v>1.141851093188876</v>
       </c>
       <c r="J15">
-        <v>0.02282698916772929</v>
+        <v>0.04716323405467548</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.6111085004427679</v>
+        <v>0.5688966583662705</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.677836695883407</v>
+        <v>1.48620345507787</v>
       </c>
       <c r="O15">
-        <v>3.627067205618829</v>
+        <v>5.441190839286008</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.269652895809543</v>
+        <v>2.198917035031343</v>
       </c>
       <c r="C16">
-        <v>0.5934514047636696</v>
+        <v>0.1811735566337802</v>
       </c>
       <c r="D16">
-        <v>0.3183479720934486</v>
+        <v>0.4781446898853261</v>
       </c>
       <c r="E16">
-        <v>0.05583359806702504</v>
+        <v>0.1381344891306551</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.000792251473675791</v>
+        <v>0.002495486623512016</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.5410407741990397</v>
+        <v>1.145373273983672</v>
       </c>
       <c r="J16">
-        <v>0.02268886746160881</v>
+        <v>0.04714118987952354</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.5770376105637354</v>
+        <v>0.5615564159121362</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.6990811906389425</v>
+        <v>1.495502414425452</v>
       </c>
       <c r="O16">
-        <v>3.48981176080764</v>
+        <v>5.434790785645504</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.092670226305245</v>
+        <v>2.150977758977376</v>
       </c>
       <c r="C17">
-        <v>0.5693957800286569</v>
+        <v>0.1739602918065941</v>
       </c>
       <c r="D17">
-        <v>0.3099380450186402</v>
+        <v>0.4770928323730175</v>
       </c>
       <c r="E17">
-        <v>0.05541163820239348</v>
+        <v>0.1383202495360116</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.0007944168623609546</v>
+        <v>0.002496822623739309</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.535332813999446</v>
+        <v>1.147697060195178</v>
       </c>
       <c r="J17">
-        <v>0.02260542145284994</v>
+        <v>0.04712825832105949</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.5563285094851409</v>
+        <v>0.5571122671440918</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.7125083178860123</v>
+        <v>1.501360190089713</v>
       </c>
       <c r="O17">
-        <v>3.408141365088312</v>
+        <v>5.431671665655358</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.99114797784199</v>
+        <v>2.123456715635939</v>
       </c>
       <c r="C18">
-        <v>0.5555854096385815</v>
+        <v>0.1698075407483941</v>
       </c>
       <c r="D18">
-        <v>0.3051503451139723</v>
+        <v>0.4765076824037919</v>
       </c>
       <c r="E18">
-        <v>0.05517751473608357</v>
+        <v>0.1384316749234813</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.0007956705839747906</v>
+        <v>0.002497601972281973</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.5322103850091509</v>
+        <v>1.149093519990402</v>
       </c>
       <c r="J18">
-        <v>0.02255788352472976</v>
+        <v>0.0471210388942076</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.5444840324565803</v>
+        <v>0.5545777864876555</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.7203722802925085</v>
+        <v>1.504785713996071</v>
       </c>
       <c r="O18">
-        <v>3.362054795716034</v>
+        <v>5.430174064708524</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.956819306643013</v>
+        <v>2.114147604065295</v>
       </c>
       <c r="C19">
-        <v>0.5509136160421804</v>
+        <v>0.1684008298939261</v>
       </c>
       <c r="D19">
-        <v>0.3035376022631056</v>
+        <v>0.476312971990879</v>
       </c>
       <c r="E19">
-        <v>0.05509969323061803</v>
+        <v>0.1384701888656501</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.0007960965123280025</v>
+        <v>0.002497867723748711</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.5311801553089239</v>
+        <v>1.149576618035418</v>
       </c>
       <c r="J19">
-        <v>0.02254186529814461</v>
+        <v>0.04711863213370293</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.5404848267906317</v>
+        <v>0.5537233823657743</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.7230587481820479</v>
+        <v>1.505955204681591</v>
       </c>
       <c r="O19">
-        <v>3.346599321807417</v>
+        <v>5.429717899201194</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.111481558235766</v>
+        <v>2.156075569034442</v>
       </c>
       <c r="C20">
-        <v>0.571953808874099</v>
+        <v>0.1747285579135678</v>
       </c>
       <c r="D20">
-        <v>0.3108281270343127</v>
+        <v>0.4772027503954348</v>
       </c>
       <c r="E20">
-        <v>0.05545566305850613</v>
+        <v>0.1383000010217579</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.0007941855050721488</v>
+        <v>0.002496679274958116</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.5359236623785222</v>
+        <v>1.147443491029208</v>
       </c>
       <c r="J20">
-        <v>0.02261425669263772</v>
+        <v>0.04712961231901502</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.5585260258351923</v>
+        <v>0.5575831120533081</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.7110642952039896</v>
+        <v>1.500730794425536</v>
       </c>
       <c r="O20">
-        <v>3.416742474792329</v>
+        <v>5.431973017522381</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.634543432727128</v>
+        <v>2.297569843594545</v>
       </c>
       <c r="C21">
-        <v>0.6429747621953084</v>
+        <v>0.1959422785270988</v>
       </c>
       <c r="D21">
-        <v>0.3359300930580815</v>
+        <v>0.4804293125209966</v>
       </c>
       <c r="E21">
-        <v>0.05675600866622155</v>
+        <v>0.1377828923971656</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.0007878615410399197</v>
+        <v>0.002492816498823184</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.5538278562794758</v>
+        <v>1.140992172739104</v>
       </c>
       <c r="J21">
-        <v>0.02286306025744267</v>
+        <v>0.0471691076101397</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.6199675954621426</v>
+        <v>0.5708099202687436</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.6724769502815704</v>
+        <v>1.483850000909051</v>
       </c>
       <c r="O21">
-        <v>3.663321992771728</v>
+        <v>5.443092874903073</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.979296607814547</v>
+        <v>2.390500098755581</v>
       </c>
       <c r="C22">
-        <v>0.6896850330824407</v>
+        <v>0.2097712308132316</v>
       </c>
       <c r="D22">
-        <v>0.3528250925269845</v>
+        <v>0.4827143915480434</v>
       </c>
       <c r="E22">
-        <v>0.05768800638178107</v>
+        <v>0.137485625653964</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.0007837963979702514</v>
+        <v>0.002490388616194934</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.5671067437966357</v>
+        <v>1.137309894520762</v>
       </c>
       <c r="J22">
-        <v>0.02303007955924308</v>
+        <v>0.04719684493131737</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.6608020302195285</v>
+        <v>0.5796464063604674</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.6485984675215661</v>
+        <v>1.47331869275181</v>
       </c>
       <c r="O22">
-        <v>3.833307691284176</v>
+        <v>5.453003771253748</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.795006027112663</v>
+        <v>2.340860304678586</v>
       </c>
       <c r="C23">
-        <v>0.6647246926647199</v>
+        <v>0.2023937479658571</v>
       </c>
       <c r="D23">
-        <v>0.3437606466161327</v>
+        <v>0.4814786881792656</v>
       </c>
       <c r="E23">
-        <v>0.05718277248098325</v>
+        <v>0.1376405638007547</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.0007859601046329351</v>
+        <v>0.002491675604198463</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.5598677383371111</v>
+        <v>1.139226292291681</v>
       </c>
       <c r="J23">
-        <v>0.02294051720405932</v>
+        <v>0.04718186586557316</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.6389415575859658</v>
+        <v>0.5749126884894196</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.6612159032646119</v>
+        <v>1.478893581070317</v>
       </c>
       <c r="O23">
-        <v>3.741728010083932</v>
+        <v>5.44747208484813</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.102976251641337</v>
+        <v>2.153770724744618</v>
       </c>
       <c r="C24">
-        <v>0.5707972638953436</v>
+        <v>0.1743812427053513</v>
       </c>
       <c r="D24">
-        <v>0.3104255742177457</v>
+        <v>0.4771529954736167</v>
       </c>
       <c r="E24">
-        <v>0.05543573311088323</v>
+        <v>0.1383091409544956</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.0007942900741898232</v>
+        <v>0.002496744047781285</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.5356560456824369</v>
+        <v>1.14755794124833</v>
       </c>
       <c r="J24">
-        <v>0.02261026092526564</v>
+        <v>0.04712899950645699</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.5575323381543029</v>
+        <v>0.5573701791436321</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.7117166885995161</v>
+        <v>1.501015164122549</v>
       </c>
       <c r="O24">
-        <v>3.412851223056236</v>
+        <v>5.431835855515146</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.366739518414022</v>
+        <v>1.953971780879442</v>
       </c>
       <c r="C25">
-        <v>0.4704364074149794</v>
+        <v>0.1440176548362047</v>
       </c>
       <c r="D25">
-        <v>0.276335493210226</v>
+        <v>0.4732461949940756</v>
       </c>
       <c r="E25">
-        <v>0.05387631585691111</v>
+        <v>0.1392055064252062</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.0008035933532894967</v>
+        <v>0.002502628890778834</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.515609538490871</v>
+        <v>1.158833802796643</v>
       </c>
       <c r="J25">
-        <v>0.02227138832975051</v>
+        <v>0.04708033887839136</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.472234391149243</v>
+        <v>0.5392769934057497</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.7715404947303171</v>
+        <v>1.527028884861124</v>
       </c>
       <c r="O25">
-        <v>3.091607724594894</v>
+        <v>5.426300495964568</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_231/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_231/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.808608104485756</v>
+        <v>2.831103147914632</v>
       </c>
       <c r="C2">
-        <v>0.1215340199039758</v>
+        <v>0.3970419801914602</v>
       </c>
       <c r="D2">
-        <v>0.4710237188118214</v>
+        <v>0.2525999151697818</v>
       </c>
       <c r="E2">
-        <v>0.1400167628055051</v>
+        <v>0.05297946537758413</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.002507324897131591</v>
+        <v>0.0008107448488286815</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1.169100895398643</v>
+        <v>0.5053606068510774</v>
       </c>
       <c r="J2">
-        <v>0.0470518017925956</v>
+        <v>0.02203523810425256</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.5266700258374613</v>
+        <v>0.4111793681287423</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.548036878411128</v>
+        <v>0.8197916954947004</v>
       </c>
       <c r="O2">
-        <v>5.431941790156287</v>
+        <v>2.879417273186618</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.711197344110815</v>
+        <v>2.471076328559036</v>
       </c>
       <c r="C3">
-        <v>0.1062177000250415</v>
+        <v>0.3474724546801724</v>
       </c>
       <c r="D3">
-        <v>0.4699262764096659</v>
+        <v>0.2372568398403985</v>
       </c>
       <c r="E3">
-        <v>0.1406612279410435</v>
+        <v>0.05251567388553902</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.002510735781739136</v>
+        <v>0.000815792320489511</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1.177282801318235</v>
+        <v>0.5009094994093388</v>
       </c>
       <c r="J3">
-        <v>0.04703706208949043</v>
+        <v>0.02188286390632488</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.5185733965032995</v>
+        <v>0.3707079966585809</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.563432616638543</v>
+        <v>0.8549340326432571</v>
       </c>
       <c r="O3">
-        <v>5.44181348034482</v>
+        <v>2.748786732078941</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.651937334414754</v>
+        <v>2.251176624664424</v>
       </c>
       <c r="C4">
-        <v>0.09677480672948491</v>
+        <v>0.3170786997540631</v>
       </c>
       <c r="D4">
-        <v>0.4694543860747729</v>
+        <v>0.2281696534559075</v>
       </c>
       <c r="E4">
-        <v>0.1411037367504324</v>
+        <v>0.05229805250247921</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.002512943342198723</v>
+        <v>0.0008189944389449523</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1.182909629404168</v>
+        <v>0.4993100349775546</v>
       </c>
       <c r="J4">
-        <v>0.04703029930473868</v>
+        <v>0.02179289685212105</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.5138232423198588</v>
+        <v>0.3462498435595478</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.573457637170023</v>
+        <v>0.8776612763413425</v>
       </c>
       <c r="O4">
-        <v>5.450854641259866</v>
+        <v>2.674468524886095</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.627928331145824</v>
+        <v>2.161815285485773</v>
       </c>
       <c r="C5">
-        <v>0.09291716556785445</v>
+        <v>0.3046979857234362</v>
       </c>
       <c r="D5">
-        <v>0.4693129397010409</v>
+        <v>0.2245458970809722</v>
       </c>
       <c r="E5">
-        <v>0.1412958493672036</v>
+        <v>0.05222571436439338</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.002513871509479405</v>
+        <v>0.0008203257518858977</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1.185354194434854</v>
+        <v>0.4989297386731266</v>
       </c>
       <c r="J5">
-        <v>0.04702812166982717</v>
+        <v>0.02175711280163739</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.5119432929360954</v>
+        <v>0.3363738140498782</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.577686807104921</v>
+        <v>0.8872041450961419</v>
       </c>
       <c r="O5">
-        <v>5.455287987682027</v>
+        <v>2.645579842266613</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.623950149726454</v>
+        <v>2.146990808390967</v>
       </c>
       <c r="C6">
-        <v>0.09227603191246203</v>
+        <v>0.3026423219338596</v>
       </c>
       <c r="D6">
-        <v>0.4692925261604444</v>
+        <v>0.2239488399092835</v>
       </c>
       <c r="E6">
-        <v>0.1413284619172916</v>
+        <v>0.05221467455786666</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.00251402735912021</v>
+        <v>0.0008205484265109142</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1.185769266085995</v>
+        <v>0.4988826066713408</v>
       </c>
       <c r="J6">
-        <v>0.04702779509026289</v>
+        <v>0.02175122324868273</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.5116345020693984</v>
+        <v>0.3347391823316173</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.578397750310209</v>
+        <v>0.8888055041862444</v>
       </c>
       <c r="O6">
-        <v>5.456069370012614</v>
+        <v>2.640864871545375</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.651612972057137</v>
+        <v>2.249970509061257</v>
       </c>
       <c r="C7">
-        <v>0.09672281987724318</v>
+        <v>0.3169117160651069</v>
       </c>
       <c r="D7">
-        <v>0.4694522724813623</v>
+        <v>0.2281204667360015</v>
       </c>
       <c r="E7">
-        <v>0.1411062799014076</v>
+        <v>0.05229701144110699</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.002512955744097271</v>
+        <v>0.0008190122858016113</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1.182941983987256</v>
+        <v>0.4993038242358274</v>
       </c>
       <c r="J7">
-        <v>0.04703026759076501</v>
+        <v>0.02179241073098748</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.5137976626225935</v>
+        <v>0.3461162937290254</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.573514090532914</v>
+        <v>0.877788845640886</v>
       </c>
       <c r="O7">
-        <v>5.450911398685349</v>
+        <v>2.674073375336064</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.774907453174421</v>
+        <v>2.706699511533145</v>
       </c>
       <c r="C8">
-        <v>0.1162610360283338</v>
+        <v>0.3799381582048511</v>
       </c>
       <c r="D8">
-        <v>0.4706034491445905</v>
+        <v>0.2472375955230603</v>
       </c>
       <c r="E8">
-        <v>0.1402292703709183</v>
+        <v>0.05280527877368257</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.002508477514925445</v>
+        <v>0.0008124641810580067</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1.171796799938917</v>
+        <v>0.5035822176189981</v>
       </c>
       <c r="J8">
-        <v>0.04704624659344159</v>
+        <v>0.02198193839824913</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.5238324835700183</v>
+        <v>0.3971388938324907</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.553226654520412</v>
+        <v>0.831665341904209</v>
       </c>
       <c r="O8">
-        <v>5.434726863279991</v>
+        <v>2.833101197477447</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.021004588198991</v>
+        <v>3.613591974438862</v>
       </c>
       <c r="C9">
-        <v>0.1542654390095777</v>
+        <v>0.50414518703775</v>
       </c>
       <c r="D9">
-        <v>0.4744606917072076</v>
+        <v>0.2875915006871423</v>
       </c>
       <c r="E9">
-        <v>0.1388801068182719</v>
+        <v>0.0543607712121279</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.002500590432057225</v>
+        <v>0.0008004144707662861</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1.154730065022498</v>
+        <v>0.5216165031690991</v>
       </c>
       <c r="J9">
-        <v>0.04709560435760807</v>
+        <v>0.02238336596494861</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.545260796720811</v>
+        <v>0.500669243453018</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.517978314925323</v>
+        <v>0.7507104979481198</v>
       </c>
       <c r="O9">
-        <v>5.426653879013571</v>
+        <v>3.195754856866927</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.204394298454588</v>
+        <v>4.289886431157584</v>
       </c>
       <c r="C10">
-        <v>0.1819961124008103</v>
+        <v>0.5962000224950827</v>
       </c>
       <c r="D10">
-        <v>0.4782674024891662</v>
+        <v>0.3193144662873522</v>
       </c>
       <c r="E10">
-        <v>0.1381139129658866</v>
+        <v>0.05588292770332259</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.002495335653980074</v>
+        <v>0.0007920054872072365</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>1.145116230419383</v>
+        <v>0.5417143396832174</v>
       </c>
       <c r="J10">
-        <v>0.0471426949923579</v>
+        <v>0.02269845236128809</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.5620664579082302</v>
+        <v>0.5794099941034858</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.494841628519957</v>
+        <v>0.6975684498539323</v>
       </c>
       <c r="O10">
-        <v>5.435186879360487</v>
+        <v>3.499254274834698</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.288374492314006</v>
+        <v>4.600488224347885</v>
       </c>
       <c r="C11">
-        <v>0.1945697096198273</v>
+        <v>0.6383566220827106</v>
       </c>
       <c r="D11">
-        <v>0.4802099514723466</v>
+        <v>0.3342757913622876</v>
       </c>
       <c r="E11">
-        <v>0.1378140269634578</v>
+        <v>0.05666705399169203</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.002493061158689865</v>
+        <v>0.0007882672761927918</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>1.141379096156086</v>
+        <v>0.552578141492738</v>
       </c>
       <c r="J11">
-        <v>0.04716643586013802</v>
+        <v>0.02284668652017885</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.5699416348258097</v>
+        <v>0.6159480647750826</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.484914637665305</v>
+        <v>0.6749005980059621</v>
       </c>
       <c r="O11">
-        <v>5.442218311051732</v>
+        <v>3.646844280683354</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.320254251633173</v>
+        <v>4.718598159385863</v>
       </c>
       <c r="C12">
-        <v>0.1993249888973594</v>
+        <v>0.6543699991614744</v>
       </c>
       <c r="D12">
-        <v>0.4809758100278287</v>
+        <v>0.3400246510314275</v>
       </c>
       <c r="E12">
-        <v>0.1377074493022086</v>
+        <v>0.05697800433563671</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.002492216447189879</v>
+        <v>0.0007868634226956628</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>1.140055534883778</v>
+        <v>0.5569607507242083</v>
       </c>
       <c r="J12">
-        <v>0.04717575648440686</v>
+        <v>0.02290357193672499</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.5729567457151887</v>
+        <v>0.6298996096396365</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.481241499302989</v>
+        <v>0.6665456726040304</v>
       </c>
       <c r="O12">
-        <v>5.44533443177437</v>
+        <v>3.704236580327517</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.31338491832588</v>
+        <v>4.693138065407254</v>
       </c>
       <c r="C13">
-        <v>0.1983011265865571</v>
+        <v>0.650918869645011</v>
       </c>
       <c r="D13">
-        <v>0.4808095239869346</v>
+        <v>0.3387827065050004</v>
       </c>
       <c r="E13">
-        <v>0.1377300923826219</v>
+        <v>0.05691039815434706</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.002492397634357886</v>
+        <v>0.0007871652594603119</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>1.140336511186028</v>
+        <v>0.5560045692594073</v>
       </c>
       <c r="J13">
-        <v>0.04717373447116557</v>
+        <v>0.02289128636022042</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.5723059244524649</v>
+        <v>0.6268895607948082</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.482028750459556</v>
+        <v>0.668334669877737</v>
       </c>
       <c r="O13">
-        <v>5.444643142508482</v>
+        <v>3.691807025760397</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.290995699362668</v>
+        <v>4.610194937553331</v>
       </c>
       <c r="C14">
-        <v>0.194961051748777</v>
+        <v>0.6396730022857753</v>
       </c>
       <c r="D14">
-        <v>0.4802723530755912</v>
+        <v>0.3347470409495514</v>
       </c>
       <c r="E14">
-        <v>0.1378051188948017</v>
+        <v>0.05669235009960971</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.002492991331859079</v>
+        <v>0.0007881515500217911</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>1.141268369281491</v>
+        <v>0.5529331880128083</v>
       </c>
       <c r="J14">
-        <v>0.04716719606739517</v>
+        <v>0.02285135114495773</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.5701890302552073</v>
+        <v>0.6170934818881335</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.484610722791217</v>
+        <v>0.6742085723093751</v>
       </c>
       <c r="O14">
-        <v>5.442465584833343</v>
+        <v>3.651535050757957</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.277291804532183</v>
+        <v>4.559456017270861</v>
       </c>
       <c r="C15">
-        <v>0.1929143649151115</v>
+        <v>0.6327913312899511</v>
       </c>
       <c r="D15">
-        <v>0.4799472589108262</v>
+        <v>0.3322861506847659</v>
       </c>
       <c r="E15">
-        <v>0.1378519837198784</v>
+        <v>0.05656064087571977</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.002493357146947846</v>
+        <v>0.0007887571839177302</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>1.141851093188876</v>
+        <v>0.5510875334763057</v>
       </c>
       <c r="J15">
-        <v>0.04716323405467548</v>
+        <v>0.02282698916784653</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.5688966583662705</v>
+        <v>0.6111085004427395</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.48620345507787</v>
+        <v>0.677836695883471</v>
       </c>
       <c r="O15">
-        <v>5.441190839286008</v>
+        <v>3.627067205618857</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.198917035031343</v>
+        <v>4.269652895809543</v>
       </c>
       <c r="C16">
-        <v>0.1811735566337802</v>
+        <v>0.5934514047637549</v>
       </c>
       <c r="D16">
-        <v>0.4781446898853261</v>
+        <v>0.3183479720933775</v>
       </c>
       <c r="E16">
-        <v>0.1381344891306551</v>
+        <v>0.05583359806702859</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.002495486623512016</v>
+        <v>0.0007922514736680383</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>1.145373273983672</v>
+        <v>0.5410407741990397</v>
       </c>
       <c r="J16">
-        <v>0.04714118987952354</v>
+        <v>0.02268886746160526</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.5615564159121362</v>
+        <v>0.5770376105638348</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.495502414425452</v>
+        <v>0.6990811906389496</v>
       </c>
       <c r="O16">
-        <v>5.434790785645504</v>
+        <v>3.489811760807669</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.150977758977376</v>
+        <v>4.092670226305302</v>
       </c>
       <c r="C17">
-        <v>0.1739602918065941</v>
+        <v>0.5693957800288842</v>
       </c>
       <c r="D17">
-        <v>0.4770928323730175</v>
+        <v>0.3099380450184412</v>
       </c>
       <c r="E17">
-        <v>0.1383202495360116</v>
+        <v>0.05541163820240769</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.002496822623739309</v>
+        <v>0.0007944168624190037</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>1.147697060195178</v>
+        <v>0.5353328139994389</v>
       </c>
       <c r="J17">
-        <v>0.04712825832105949</v>
+        <v>0.02260542145289079</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.5571122671440918</v>
+        <v>0.5563285094850414</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.501360190089713</v>
+        <v>0.712508317885991</v>
       </c>
       <c r="O17">
-        <v>5.431671665655358</v>
+        <v>3.408141365088284</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.123456715635939</v>
+        <v>3.99114797784182</v>
       </c>
       <c r="C18">
-        <v>0.1698075407483941</v>
+        <v>0.5555854096386383</v>
       </c>
       <c r="D18">
-        <v>0.4765076824037919</v>
+        <v>0.3051503451139439</v>
       </c>
       <c r="E18">
-        <v>0.1384316749234813</v>
+        <v>0.05517751473611021</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.002497601972281973</v>
+        <v>0.0007956705840016022</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>1.149093519990402</v>
+        <v>0.5322103850091437</v>
       </c>
       <c r="J18">
-        <v>0.0471210388942076</v>
+        <v>0.02255788352476706</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.5545777864876555</v>
+        <v>0.5444840324565945</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.504785713996071</v>
+        <v>0.7203722802925583</v>
       </c>
       <c r="O18">
-        <v>5.430174064708524</v>
+        <v>3.362054795716034</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.114147604065295</v>
+        <v>3.956819306642785</v>
       </c>
       <c r="C19">
-        <v>0.1684008298939261</v>
+        <v>0.5509136160419246</v>
       </c>
       <c r="D19">
-        <v>0.476312971990879</v>
+        <v>0.3035376022630345</v>
       </c>
       <c r="E19">
-        <v>0.1384701888656501</v>
+        <v>0.05509969323063224</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.002497867723748711</v>
+        <v>0.0007960965123268188</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>1.149576618035418</v>
+        <v>0.5311801553089239</v>
       </c>
       <c r="J19">
-        <v>0.04711863213370293</v>
+        <v>0.02254186529814817</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.5537233823657743</v>
+        <v>0.5404848267906033</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.505955204681591</v>
+        <v>0.7230587481820479</v>
       </c>
       <c r="O19">
-        <v>5.429717899201194</v>
+        <v>3.346599321807503</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.156075569034442</v>
+        <v>4.111481558235766</v>
       </c>
       <c r="C20">
-        <v>0.1747285579135678</v>
+        <v>0.5719538088736158</v>
       </c>
       <c r="D20">
-        <v>0.4772027503954348</v>
+        <v>0.3108281270342133</v>
       </c>
       <c r="E20">
-        <v>0.1383000010217579</v>
+        <v>0.05545566305851501</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.002496679274958116</v>
+        <v>0.0007941855051273655</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>1.147443491029208</v>
+        <v>0.5359236623785151</v>
       </c>
       <c r="J20">
-        <v>0.04712961231901502</v>
+        <v>0.02261425669265549</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.5575831120533081</v>
+        <v>0.558526025835107</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.500730794425536</v>
+        <v>0.7110642952039541</v>
       </c>
       <c r="O20">
-        <v>5.431973017522381</v>
+        <v>3.416742474792329</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.297569843594545</v>
+        <v>4.634543432727014</v>
       </c>
       <c r="C21">
-        <v>0.1959422785270988</v>
+        <v>0.6429747621951378</v>
       </c>
       <c r="D21">
-        <v>0.4804293125209966</v>
+        <v>0.3359300930579394</v>
       </c>
       <c r="E21">
-        <v>0.1377828923971656</v>
+        <v>0.0567560086662251</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.002492816498823184</v>
+        <v>0.0007878615410309082</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>1.140992172739104</v>
+        <v>0.5538278562794972</v>
       </c>
       <c r="J21">
-        <v>0.0471691076101397</v>
+        <v>0.022863060257448</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.5708099202687436</v>
+        <v>0.6199675954621711</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.483850000909051</v>
+        <v>0.6724769502816343</v>
       </c>
       <c r="O21">
-        <v>5.443092874903073</v>
+        <v>3.663321992771785</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.390500098755581</v>
+        <v>4.979296607814547</v>
       </c>
       <c r="C22">
-        <v>0.2097712308132316</v>
+        <v>0.6896850330825828</v>
       </c>
       <c r="D22">
-        <v>0.4827143915480434</v>
+        <v>0.3528250925267855</v>
       </c>
       <c r="E22">
-        <v>0.137485625653964</v>
+        <v>0.05768800638174376</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.002490388616194934</v>
+        <v>0.0007837963980085307</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>1.137309894520762</v>
+        <v>0.5671067437966286</v>
       </c>
       <c r="J22">
-        <v>0.04719684493131737</v>
+        <v>0.023030079559204</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.5796464063604674</v>
+        <v>0.6608020302194291</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.47331869275181</v>
+        <v>0.6485984675215661</v>
       </c>
       <c r="O22">
-        <v>5.453003771253748</v>
+        <v>3.833307691284233</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.340860304678586</v>
+        <v>4.79500602711272</v>
       </c>
       <c r="C23">
-        <v>0.2023937479658571</v>
+        <v>0.6647246926648904</v>
       </c>
       <c r="D23">
-        <v>0.4814786881792656</v>
+        <v>0.3437606466163174</v>
       </c>
       <c r="E23">
-        <v>0.1376405638007547</v>
+        <v>0.05718277248098147</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.002491675604198463</v>
+        <v>0.0007859601046698955</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>1.139226292291681</v>
+        <v>0.5598677383370969</v>
       </c>
       <c r="J23">
-        <v>0.04718186586557316</v>
+        <v>0.02294051720404866</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.5749126884894196</v>
+        <v>0.6389415575859374</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.478893581070317</v>
+        <v>0.661215903264619</v>
       </c>
       <c r="O23">
-        <v>5.44747208484813</v>
+        <v>3.741728010083989</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.153770724744618</v>
+        <v>4.102976251641451</v>
       </c>
       <c r="C24">
-        <v>0.1743812427053513</v>
+        <v>0.5707972638952583</v>
       </c>
       <c r="D24">
-        <v>0.4771529954736167</v>
+        <v>0.3104255742179021</v>
       </c>
       <c r="E24">
-        <v>0.1383091409544956</v>
+        <v>0.05543573311089389</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.002496744047781285</v>
+        <v>0.0007942900742820216</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>1.14755794124833</v>
+        <v>0.535656045682444</v>
       </c>
       <c r="J24">
-        <v>0.04712899950645699</v>
+        <v>0.02261026092528695</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.5573701791436321</v>
+        <v>0.5575323381543598</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.501015164122549</v>
+        <v>0.7117166885994379</v>
       </c>
       <c r="O24">
-        <v>5.431835855515146</v>
+        <v>3.412851223056265</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.953971780879442</v>
+        <v>3.366739518414192</v>
       </c>
       <c r="C25">
-        <v>0.1440176548362047</v>
+        <v>0.4704364074154341</v>
       </c>
       <c r="D25">
-        <v>0.4732461949940756</v>
+        <v>0.2763354932101976</v>
       </c>
       <c r="E25">
-        <v>0.1392055064252062</v>
+        <v>0.05387631585688801</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.002502628890778834</v>
+        <v>0.000803593353317148</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>1.158833802796643</v>
+        <v>0.5156095384908781</v>
       </c>
       <c r="J25">
-        <v>0.04708033887839136</v>
+        <v>0.02227138832969722</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.5392769934057497</v>
+        <v>0.4722343911492004</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.527028884861124</v>
+        <v>0.7715404947303099</v>
       </c>
       <c r="O25">
-        <v>5.426300495964568</v>
+        <v>3.091607724595008</v>
       </c>
     </row>
   </sheetData>
